--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31062" windowHeight="13417"/>
+    <workbookView windowWidth="31062" windowHeight="13417" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>login</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t xml:space="preserve">click in accept late submission </t>
+  </si>
+  <si>
+    <t>Test_IDs</t>
+  </si>
+  <si>
+    <t>Jira_IDs</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>3451</t>
+  </si>
+  <si>
+    <t>678, 987</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>687</t>
   </si>
 </sst>
 </file>
@@ -73,8 +97,16 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,12 +258,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -531,153 +569,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,8 +1047,8 @@
   <sheetPr/>
   <dimension ref="A2:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W2"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99453551912568" defaultRowHeight="13.7" outlineLevelRow="1"/>
@@ -1083,14 +1133,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="269" zoomScaleNormal="269" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99453551912568" defaultRowHeight="13.7"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.99453551912568" defaultRowHeight="13.7" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/example.xlsx
+++ b/example.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+  <si>
+    <t>1235</t>
+  </si>
   <si>
     <t>login</t>
   </si>
@@ -63,25 +66,37 @@
     <t xml:space="preserve">click in accept late submission </t>
   </si>
   <si>
+    <t>3451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>click on course setting</t>
+  </si>
+  <si>
+    <t>click on scoring policy</t>
+  </si>
+  <si>
+    <t>change scores for LT assignment types</t>
+  </si>
+  <si>
+    <t>click on save button</t>
+  </si>
+  <si>
     <t>Test_IDs</t>
   </si>
   <si>
     <t>Jira_IDs</t>
   </si>
   <si>
-    <t>1235</t>
-  </si>
-  <si>
     <t>678</t>
   </si>
   <si>
-    <t>3451</t>
-  </si>
-  <si>
     <t>678, 987</t>
-  </si>
-  <si>
-    <t>1234</t>
   </si>
   <si>
     <t>687</t>
@@ -92,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +126,43 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,38 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,66 +190,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -235,6 +197,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -242,17 +257,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,31 +295,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,151 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +489,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,15 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +569,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -525,196 +586,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +744,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1045,83 +1073,142 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:W2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99453551912568" defaultRowHeight="13.7" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.99453551912568" defaultRowHeight="13.7" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="5.21857923497268" customWidth="1"/>
+    <col min="3" max="3" width="13.4644808743169" customWidth="1"/>
+    <col min="4" max="4" width="23.4262295081967" customWidth="1"/>
+    <col min="5" max="5" width="11.2622950819672" customWidth="1"/>
+    <col min="7" max="7" width="23.4207650273224" customWidth="1"/>
+    <col min="8" max="8" width="7.0983606557377" customWidth="1"/>
+    <col min="10" max="10" width="4.3224043715847" customWidth="1"/>
+    <col min="11" max="11" width="3.91803278688525" customWidth="1"/>
+    <col min="13" max="13" width="16.4863387978142" customWidth="1"/>
+    <col min="14" max="14" width="14.3661202185792" customWidth="1"/>
+    <col min="15" max="15" width="5.87431693989071" customWidth="1"/>
+    <col min="16" max="16" width="5.54644808743169" customWidth="1"/>
+    <col min="22" max="22" width="7.42622950819672" customWidth="1"/>
+    <col min="23" max="23" width="11.1857923497268" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1135,42 +1222,42 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="269" zoomScaleNormal="269" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99453551912568" defaultRowHeight="13.7" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
